--- a/meta.xlsx
+++ b/meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\LX9quad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF15DA21-03CC-4D8A-8298-E694A82D6C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8053E782-5B4B-46A9-A179-0B2758E84E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{378DD8FD-EEE8-43E3-A92D-1249D286AFB5}"/>
   </bookViews>
@@ -250,21 +250,22 @@
     <t>Model3</t>
   </si>
   <si>
-    <t>Didymin1</t>
-  </si>
-  <si>
-    <t>Didymin2</t>
-  </si>
-  <si>
-    <t>Didymin3</t>
-  </si>
-  <si>
     <t>Infinity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Accepted Compound ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA2</t>
+  </si>
+  <si>
+    <t>MA3</t>
   </si>
 </sst>
 </file>
@@ -649,7 +650,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,7 +663,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>67</v>
@@ -677,13 +678,13 @@
         <v>71</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -873,7 +874,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1">
         <v>15.7690125920757</v>
@@ -899,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1601,7 +1602,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1">
         <v>18.6535089946121</v>
